--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,9 @@
     <t>访问时长</t>
   </si>
   <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
     <t>2023-04-18</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t>2023-04-13</t>
   </si>
   <si>
-    <t>2023-04-12</t>
+    <t>19.85%</t>
   </si>
   <si>
     <t>19.86%</t>
@@ -76,25 +79,25 @@
     <t>31.64%</t>
   </si>
   <si>
-    <t>31.58%</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>10:04</t>
-  </si>
-  <si>
-    <t>09:50</t>
-  </si>
-  <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>07:46</t>
-  </si>
-  <si>
-    <t>06:51</t>
+    <t>00:09:48</t>
+  </si>
+  <si>
+    <t>00:09:41</t>
+  </si>
+  <si>
+    <t>00:10:04</t>
+  </si>
+  <si>
+    <t>00:09:50</t>
+  </si>
+  <si>
+    <t>00:09:55</t>
+  </si>
+  <si>
+    <t>00:07:46</t>
+  </si>
+  <si>
+    <t>00:06:51</t>
   </si>
 </sst>
 </file>
@@ -486,16 +489,16 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2608049</v>
+        <v>2605362</v>
       </c>
       <c r="C2">
-        <v>208630</v>
+        <v>210422</v>
       </c>
       <c r="D2">
-        <v>169394</v>
+        <v>171914</v>
       </c>
       <c r="E2">
-        <v>154690</v>
+        <v>157066</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -509,16 +512,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2728534</v>
+        <v>2608049</v>
       </c>
       <c r="C3">
-        <v>206398</v>
+        <v>208630</v>
       </c>
       <c r="D3">
-        <v>163555</v>
+        <v>169394</v>
       </c>
       <c r="E3">
-        <v>153769</v>
+        <v>154690</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -532,16 +535,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2944683</v>
+        <v>2728534</v>
       </c>
       <c r="C4">
-        <v>229074</v>
+        <v>206398</v>
       </c>
       <c r="D4">
-        <v>185007</v>
+        <v>163555</v>
       </c>
       <c r="E4">
-        <v>169394</v>
+        <v>153769</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -555,16 +558,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2730831</v>
+        <v>2944683</v>
       </c>
       <c r="C5">
-        <v>217054</v>
+        <v>229074</v>
       </c>
       <c r="D5">
-        <v>172934</v>
+        <v>185007</v>
       </c>
       <c r="E5">
-        <v>163612</v>
+        <v>169394</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -578,16 +581,16 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2863104</v>
+        <v>2730831</v>
       </c>
       <c r="C6">
-        <v>286053</v>
+        <v>217054</v>
       </c>
       <c r="D6">
-        <v>232880</v>
+        <v>172934</v>
       </c>
       <c r="E6">
-        <v>166109</v>
+        <v>163612</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -601,16 +604,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2901086</v>
+        <v>2863104</v>
       </c>
       <c r="C7">
-        <v>337417</v>
+        <v>286053</v>
       </c>
       <c r="D7">
-        <v>277719</v>
+        <v>232880</v>
       </c>
       <c r="E7">
-        <v>157767</v>
+        <v>166109</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -624,22 +627,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>2944916</v>
+        <v>2901086</v>
       </c>
       <c r="C8">
-        <v>329663</v>
+        <v>337417</v>
       </c>
       <c r="D8">
-        <v>272308</v>
+        <v>277719</v>
       </c>
       <c r="E8">
-        <v>156722</v>
+        <v>157767</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
